--- a/July'21/31.07.2021/Daily Sales Info.xlsx
+++ b/July'21/31.07.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="862" firstSheet="3" activeTab="30"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="862" firstSheet="3" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -32766,9 +32766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56341,9 +56341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18:H18"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/July'21/31.07.2021/Daily Sales Info.xlsx
+++ b/July'21/31.07.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="862" firstSheet="3" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="862" firstSheet="3" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -32766,9 +32766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56341,9 +56341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
